--- a/results/distances/Distances Evalulated.xlsx
+++ b/results/distances/Distances Evalulated.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -434,10 +434,10 @@
         <v>0.1593</v>
       </c>
       <c r="D2" s="3">
-        <v>1.4397</v>
+        <v>0.82069999999999999</v>
       </c>
       <c r="E2" s="3">
-        <v>1654.5047</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75">
@@ -451,10 +451,10 @@
         <v>0.88539999999999996</v>
       </c>
       <c r="D3" s="3">
-        <v>10.758800000000001</v>
+        <v>12.605700000000001</v>
       </c>
       <c r="E3" s="3">
-        <v>50657.24</v>
+        <v>29.7395</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75">
@@ -468,10 +468,10 @@
         <v>0.32919999999999999</v>
       </c>
       <c r="D4" s="3">
-        <v>5.3372000000000002</v>
+        <v>5.7495000000000003</v>
       </c>
       <c r="E4" s="3">
-        <v>18778.8547</v>
+        <v>10.395300000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75">
